--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689257.6331314585</v>
+        <v>643980.4963358847</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226768</v>
+        <v>6110993.067254422</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8551844.016552845</v>
+        <v>9511853.175357047</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.8405921356982</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>324.3723742885362</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.40229248514523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663202</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663202</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663202</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.8606889554004</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>88.3646269539347</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.70122005612029</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663203</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>25.20517251245842</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.21594625443479</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>114.0495374903441</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.720600730164</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>85.97636447956961</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>44.54753278667621</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>48.00547107822035</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>128.3412890356168</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>284.816458252132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>240.2451530332451</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
         <v>225.7871683969286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>5.507838302839409</v>
       </c>
       <c r="I13" t="n">
-        <v>41.53755339165775</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>167.0871020271705</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>255.438417953038</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>21.82230259246447</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>244.2230125550545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>88.89700561060583</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>87.62154955555334</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>158.5596236696492</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>95.92502041856193</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>115.3249935453964</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>47.38664856090053</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>115.4725318792222</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>93.05572980479299</v>
       </c>
       <c r="G25" t="n">
-        <v>150.3013276789176</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>244.6249249904613</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>112.2238558644859</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>146.5990350281144</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4297735342292</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.58584547962766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>293.3722074139848</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>321.4267434728696</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>124.0533949789329</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>359.098017097412</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>147.4796297298084</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.87152028304765</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>268.440468963445</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>289.8718464374992</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>26.28051149992596</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>54.51165059784278</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>130.5879169171947</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>315.484845870459</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>357.5172482913119</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>77.80777884202389</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>220.1132435568595</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>120.4806283466942</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.9236777330946</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>117.4014735002803</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897907</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433447</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268596</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268596</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268596</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268596</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268596</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268596</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198772</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033921</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033921</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9797031869071</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9797031869071</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>30.55991817042201</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55991817042201</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330562</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330562</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330562</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330562</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>687.6943907117195</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>398.2772206747588</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>398.2772206747588</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7407511348962</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>141.7407511348962</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>141.7407511348962</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7407511348962</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>141.7407511348962</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>21.0337116067851</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058976</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644763</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123838</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985594</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020279</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652812</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652812</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652812</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>560.6825636487961</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>520.5803211678665</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>331.1605361513814</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>141.7407511348962</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>141.7407511348962</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.7407511348962</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652807</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>750.1023486652807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>601.1679390040294</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>441.9304839985739</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>295.3959260254589</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>157.8567448479081</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>55.99638388756496</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>30.5366136729605</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024228</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772652</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140249</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546608</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476356</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017072</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652807</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652807</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652807</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652807</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652807</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652807</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652807</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652807</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652807</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230188</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170739</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330562</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330562</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330562</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330562</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330562</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330562</v>
+        <v>181.713669452733</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330562</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.4737344180644</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>185.5112174776527</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>185.5112174776527</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E8" t="n">
-        <v>43.36919653809306</v>
+        <v>195.3538277983405</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>1704.678664719078</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>1704.678664719078</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.678664719078</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.212906457998</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>941.0735744821861</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>507.2095102769676</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C9" t="n">
-        <v>332.7564809958407</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D9" t="n">
-        <v>183.8220713345894</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E9" t="n">
-        <v>183.8220713345894</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F9" t="n">
-        <v>183.8220713345894</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309181</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442445</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107021</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>715.0610104825005</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>507.2095102769676</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>507.2095102769676</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D10" t="n">
-        <v>520.2893470405991</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E10" t="n">
-        <v>471.7989722141139</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2232.598233480554</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C11" t="n">
-        <v>1863.635716540142</v>
+        <v>1053.237939387931</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>694.9722407811803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>309.183988182936</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,16 +5041,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5059,7 +5059,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520488</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520488</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>3009.337405520488</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>2619.198073544676</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5123,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,16 +5138,16 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>739.2385409879448</v>
+        <v>72.07558946535454</v>
       </c>
       <c r="C13" t="n">
-        <v>570.3023580600379</v>
+        <v>72.07558946535454</v>
       </c>
       <c r="D13" t="n">
-        <v>570.3023580600379</v>
+        <v>72.07558946535454</v>
       </c>
       <c r="E13" t="n">
-        <v>422.3892644776448</v>
+        <v>72.07558946535454</v>
       </c>
       <c r="F13" t="n">
-        <v>422.3892644776448</v>
+        <v>72.07558946535454</v>
       </c>
       <c r="G13" t="n">
-        <v>254.6864278523638</v>
+        <v>72.07558946535454</v>
       </c>
       <c r="H13" t="n">
-        <v>108.4692410702216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181845</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181845</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181845</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181845</v>
+        <v>253.7240542955942</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1917.382287315189</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C14" t="n">
-        <v>1548.419770374778</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>3067.587217616203</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>2694.121459355123</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.982127379311</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5463,22 +5463,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U16" t="n">
-        <v>631.7841389438285</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V16" t="n">
-        <v>377.0996507379416</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="W16" t="n">
-        <v>87.68248070098099</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="Y16" t="n">
         <v>66.51211643218342</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.942324366272</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V17" t="n">
-        <v>3078.915909937399</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W17" t="n">
-        <v>2726.147254667285</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X17" t="n">
-        <v>2352.681496406205</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y17" t="n">
-        <v>1962.542164430393</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5700,22 +5700,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>831.0920506559569</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>831.0920506559569</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U19" t="n">
-        <v>541.9891837816004</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V19" t="n">
-        <v>287.3046955757135</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W19" t="n">
-        <v>287.3046955757135</v>
+        <v>155.0187321448636</v>
       </c>
       <c r="X19" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y19" t="n">
         <v>66.51211643218343</v>
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.48089954095</v>
+        <v>1480.516858765519</v>
       </c>
       <c r="C20" t="n">
-        <v>1733.518382600539</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D20" t="n">
-        <v>1375.252683993788</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>989.4644313955439</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>578.4785266059364</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>163.4060764509329</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2862.546497866152</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X20" t="n">
-        <v>2489.080739605072</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y20" t="n">
-        <v>2489.080739605072</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>3209.115929139074</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U22" t="n">
-        <v>2920.013062264718</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V22" t="n">
-        <v>2920.013062264718</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W22" t="n">
-        <v>2920.013062264718</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X22" t="n">
-        <v>2692.0235113667</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038044</v>
+        <v>1753.263343671913</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097632</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.404020490882</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926375</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030299</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102166</v>
+        <v>2139.863183736034</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>218.331639340181</v>
+        <v>160.5078031036915</v>
       </c>
       <c r="C25" t="n">
-        <v>218.331639340181</v>
+        <v>160.5078031036915</v>
       </c>
       <c r="D25" t="n">
-        <v>218.331639340181</v>
+        <v>160.5078031036915</v>
       </c>
       <c r="E25" t="n">
-        <v>218.331639340181</v>
+        <v>160.5078031036915</v>
       </c>
       <c r="F25" t="n">
-        <v>218.331639340181</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450114</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T25" t="n">
-        <v>507.4345062145375</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U25" t="n">
-        <v>218.331639340181</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V25" t="n">
-        <v>218.331639340181</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W25" t="n">
-        <v>218.331639340181</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X25" t="n">
-        <v>218.331639340181</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.331639340181</v>
+        <v>160.5078031036915</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6262,16 +6262,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3093.488074938325</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2740.71941966821</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3143.95735677893</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>2975.021173851023</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>2975.021173851023</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>2975.021173851023</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>2828.131226353113</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>2714.773796186966</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2175.400891308157</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1806.438374367745</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1448.172675760994</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.38442316275</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.60582160917</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.14006334809</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.000731372279</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6648,25 +6648,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V31" t="n">
-        <v>666.202517612298</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W31" t="n">
-        <v>376.7853475753374</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X31" t="n">
-        <v>376.7853475753374</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.9927684318073</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2212.771568013854</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C32" t="n">
-        <v>1843.809051073442</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>1485.543352466692</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>1099.755099868448</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>688.7691950788401</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2599.371408077976</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>507.4345062145372</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>507.4345062145372</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>359.5214126321441</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>359.5214126321441</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>191.8185760068631</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.4345062145372</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.035106955552</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.07259001514</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.806891408389</v>
+        <v>1313.925742536067</v>
       </c>
       <c r="E35" t="n">
-        <v>775.0816216130238</v>
+        <v>928.1374899378222</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X35" t="n">
-        <v>2641.774278995485</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.634947019673</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>739.2385409879452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C37" t="n">
-        <v>570.3023580600383</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>395.0505287603335</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>395.0505287603335</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038042</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D38" t="n">
-        <v>1453.669719097631</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E38" t="n">
-        <v>1067.881466499387</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>656.895561709779</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102164</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.5743897633377</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C40" t="n">
-        <v>121.5743897633377</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V40" t="n">
-        <v>631.7841389438285</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W40" t="n">
-        <v>342.3669689068678</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X40" t="n">
-        <v>342.3669689068678</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.5743897633377</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1617.939223126803</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C41" t="n">
-        <v>1617.939223126803</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7411,10 +7411,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,13 +7423,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2755.806928794324</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X41" t="n">
-        <v>2394.678395166736</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y41" t="n">
-        <v>2004.539063190924</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="C43" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="D43" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>291.32301921637</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U43" t="n">
-        <v>698.5503961647914</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V43" t="n">
-        <v>698.5503961647914</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W43" t="n">
-        <v>698.5503961647914</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X43" t="n">
-        <v>698.5503961647914</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="Y43" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038043</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097631</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490881</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926365</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F44" t="n">
-        <v>298.629863103029</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102165</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7730,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
         <v>66.51211643218342</v>
@@ -7806,52 +7806,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U46" t="n">
-        <v>779.5499576029378</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V46" t="n">
-        <v>524.8654693970509</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W46" t="n">
-        <v>235.4482993600903</v>
+        <v>185.0994634021635</v>
       </c>
       <c r="X46" t="n">
-        <v>235.4482993600903</v>
+        <v>185.0994634021635</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.8932495277824</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046873</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988657</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>45.35872638993283</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.1308911647221</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681015</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310506</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715727</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625558</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.27695436842762</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>294.3692147095459</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988648</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>211.46804050891</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038146</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510927</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.69938639163305</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825412</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>154.5643095410614</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>104.5351158617507</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.2097693420978</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>320.8996812621418</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,10 +23080,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23108,19 +23108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>90.95970106035904</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>98.42849156834882</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>17.07975898731445</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>69.86658336855095</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>166.6308927084663</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.2471766114814</v>
       </c>
       <c r="I13" t="n">
-        <v>54.81486701818037</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23475,7 +23475,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>198.185789743837</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23548,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>93.80255076437504</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.8720197208362</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>343.4505891785431</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>83.52924591508037</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>100.8720197208361</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>138.0881058334838</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>206.7132681013584</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>198.6827439687585</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>104.2239557307728</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>249.8003598917854</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24259,10 +24259,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>52.36531821813826</v>
       </c>
       <c r="G25" t="n">
-        <v>15.72448058011062</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>125.1061756880077</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80195239454228</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>236.1348066353661</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24739,10 +24739,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.24613470230963</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>71.90068435702273</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.4949821805838</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>20.70161993538791</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>22.83235297484981</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>259.396416011903</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>107.7439527351647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25371,10 +25371,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>18.08252937314597</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>121.0498792159543</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>343.4505891785431</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>41.84076981199531</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>87.99673643490004</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>49.78804590054852</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>12.21385238715715</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>88.21802941700433</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,19 +25842,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>66.09859464875336</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>249.2504723317749</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>146.2881604725182</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>101.1831798518145</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>416599.1113786229</v>
+        <v>822602.4434218736</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416599.1113786229</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>645633.2065222074</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166639.644551449</v>
+        <v>329040.977368749</v>
       </c>
       <c r="C2" t="n">
-        <v>166639.6445514491</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="D2" t="n">
-        <v>258253.2826088828</v>
+        <v>329040.9773687489</v>
       </c>
       <c r="E2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="F2" t="n">
         <v>329040.9773687492</v>
       </c>
       <c r="G2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="H2" t="n">
         <v>329040.9773687492</v>
-      </c>
-      <c r="H2" t="n">
-        <v>329040.9773687494</v>
       </c>
       <c r="I2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="J2" t="n">
-        <v>329040.977368749</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="K2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="L2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="M2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="N2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="O2" t="n">
         <v>329040.9773687493</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687491</v>
+        <v>329040.9773687493</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487657</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669098</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127023</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723343</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
         <v>584.6469890061231</v>
@@ -26456,10 +26456,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.8004116136</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26487,10 +26487,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26502,10 +26502,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481840.8584990826</v>
+        <v>-1112296.351287412</v>
       </c>
       <c r="C6" t="n">
-        <v>109516.0440217632</v>
+        <v>216448.39444018</v>
       </c>
       <c r="D6" t="n">
-        <v>-198888.6461210021</v>
+        <v>216448.3944401799</v>
       </c>
       <c r="E6" t="n">
-        <v>-21880.75594856006</v>
+        <v>250075.99444018</v>
       </c>
       <c r="F6" t="n">
-        <v>254149.9898183495</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="G6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="H6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401801</v>
       </c>
       <c r="I6" t="n">
-        <v>254149.9898183501</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="J6" t="n">
-        <v>205085.045089805</v>
+        <v>32544.79204290272</v>
       </c>
       <c r="K6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="L6" t="n">
-        <v>164406.6116870796</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="M6" t="n">
-        <v>182058.6372022638</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="N6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="O6" t="n">
-        <v>254149.9898183498</v>
+        <v>250075.9944401805</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401802</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663203</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
@@ -26810,7 +26810,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,10 +26822,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247792</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556139</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.589369559843</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.589369559843</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.589369559843</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32247,7 +32247,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
         <v>738.1512123099059</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
